--- a/tests/data_for_testing/deriv_calibration.xlsx
+++ b/tests/data_for_testing/deriv_calibration.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cornellprod-my.sharepoint.com/personal/mp933_cornell_edu/Documents/Python/gcms_data_analysis/example/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cornellprod-my.sharepoint.com/personal/mp933_cornell_edu/Documents/Python/gcms_data_analysis/tests/data_for_testing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="20" documentId="13_ncr:1_{78E7F964-D547-4001-802D-4FE3C14BF91B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{210DB0C1-63A6-42EF-BC2A-CF98EDA7F62D}"/>
+  <xr:revisionPtr revIDLastSave="21" documentId="13_ncr:1_{78E7F964-D547-4001-802D-4FE3C14BF91B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AF4F42C8-E192-4A4C-8C02-AA1C19C5C533}"/>
   <bookViews>
-    <workbookView xWindow="10335" yWindow="-16320" windowWidth="38640" windowHeight="15840" xr2:uid="{6D821E06-881F-4115-BBEA-B9244CF9E454}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{6D821E06-881F-4115-BBEA-B9244CF9E454}"/>
   </bookViews>
   <sheets>
     <sheet name="Calibration" sheetId="1" r:id="rId1"/>
@@ -102,6 +102,27 @@
   </si>
   <si>
     <t>9-octadecenoic acid, (E)-</t>
+  </si>
+  <si>
+    <t>phenol</t>
+  </si>
+  <si>
+    <t>108-95-2</t>
+  </si>
+  <si>
+    <t>4-oxopentanoic acid</t>
+  </si>
+  <si>
+    <t>123-76-2</t>
+  </si>
+  <si>
+    <t>benzene-1,2-diol</t>
+  </si>
+  <si>
+    <t>120-80-9</t>
+  </si>
+  <si>
+    <t>n.a.</t>
   </si>
   <si>
     <r>
@@ -150,27 +171,6 @@
       <t>)-octadeca-9,12-dienoic acid</t>
     </r>
   </si>
-  <si>
-    <t>phenol</t>
-  </si>
-  <si>
-    <t>108-95-2</t>
-  </si>
-  <si>
-    <t>4-oxopentanoic acid</t>
-  </si>
-  <si>
-    <t>123-76-2</t>
-  </si>
-  <si>
-    <t>benzene-1,2-diol</t>
-  </si>
-  <si>
-    <t>120-80-9</t>
-  </si>
-  <si>
-    <t>n.a.</t>
-  </si>
 </sst>
 </file>
 
@@ -181,14 +181,6 @@
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -225,6 +217,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -246,10 +245,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -261,16 +260,8 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -588,7 +579,7 @@
   <dimension ref="A1:O14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="76" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:O8"/>
+      <selection activeCell="A2" sqref="A2:A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89453125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -655,333 +646,333 @@
       <c r="A2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="7">
+      <c r="B2" s="5">
         <v>122.12130000000001</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="G2" s="8">
+      <c r="C2" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="4">
         <v>30</v>
       </c>
-      <c r="H2" s="8">
+      <c r="H2" s="4">
         <v>50</v>
       </c>
-      <c r="I2" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="K2" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="L2" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="M2" s="9">
+      <c r="I2" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="M2">
         <v>73458</v>
       </c>
-      <c r="N2" s="9">
+      <c r="N2">
         <v>113812</v>
       </c>
-      <c r="O2" s="9" t="s">
+      <c r="O2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="5">
         <v>256.42410000000001</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="4">
         <v>5</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="4">
         <v>10</v>
       </c>
-      <c r="E3" s="8">
+      <c r="E3" s="4">
         <v>15</v>
       </c>
-      <c r="F3" s="8">
+      <c r="F3" s="4">
         <v>20</v>
       </c>
-      <c r="G3" s="8">
+      <c r="G3" s="4">
         <v>30</v>
       </c>
-      <c r="H3" s="8">
+      <c r="H3" s="4">
         <v>50</v>
       </c>
-      <c r="I3" s="8">
+      <c r="I3" s="4">
         <v>403058</v>
       </c>
-      <c r="J3" s="9">
+      <c r="J3">
         <v>570479</v>
       </c>
-      <c r="K3" s="9">
+      <c r="K3">
         <v>694901</v>
       </c>
-      <c r="L3" s="9">
+      <c r="L3">
         <v>936570</v>
       </c>
-      <c r="M3" s="9">
+      <c r="M3">
         <v>1474014</v>
       </c>
-      <c r="N3" s="9">
+      <c r="N3">
         <v>2605959</v>
       </c>
-      <c r="O3" s="9" t="s">
+      <c r="O3" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" s="7">
+      <c r="A4" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="5">
         <v>280.44549999999998</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="4">
         <v>5</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="4">
         <v>10</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4" s="4">
         <v>15</v>
       </c>
-      <c r="F4" s="8">
+      <c r="F4" s="4">
         <v>20</v>
       </c>
-      <c r="G4" s="8">
+      <c r="G4" s="4">
         <v>30</v>
       </c>
-      <c r="H4" s="8">
+      <c r="H4" s="4">
         <v>50</v>
       </c>
-      <c r="I4" s="8">
+      <c r="I4" s="4">
         <v>126644</v>
       </c>
-      <c r="J4" s="9">
+      <c r="J4">
         <v>183307</v>
       </c>
-      <c r="K4" s="9">
+      <c r="K4">
         <v>241591</v>
       </c>
-      <c r="L4" s="9">
+      <c r="L4">
         <v>350170</v>
       </c>
-      <c r="M4" s="9">
+      <c r="M4">
         <v>475205</v>
       </c>
-      <c r="N4" s="9">
+      <c r="N4">
         <v>824267</v>
       </c>
-      <c r="O4" s="9" t="s">
+      <c r="O4" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="5">
         <v>282.46140000000003</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="4">
         <v>5</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="4">
         <v>10</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="4">
         <v>15</v>
       </c>
-      <c r="F5" s="8">
+      <c r="F5" s="4">
         <v>20</v>
       </c>
-      <c r="G5" s="8">
+      <c r="G5" s="4">
         <v>30</v>
       </c>
-      <c r="H5" s="8">
+      <c r="H5" s="4">
         <v>50</v>
       </c>
-      <c r="I5" s="8">
+      <c r="I5" s="4">
         <v>467088</v>
       </c>
-      <c r="J5" s="9">
+      <c r="J5">
         <v>741971</v>
       </c>
-      <c r="K5" s="9">
+      <c r="K5">
         <v>953554</v>
       </c>
-      <c r="L5" s="9">
+      <c r="L5">
         <v>1408563</v>
       </c>
-      <c r="M5" s="9">
+      <c r="M5">
         <v>2476003</v>
       </c>
-      <c r="N5" s="9">
+      <c r="N5">
         <v>4300414</v>
       </c>
-      <c r="O5" s="9" t="s">
+      <c r="O5" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="5">
+        <v>94.111199999999997</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="4">
+        <v>15</v>
+      </c>
+      <c r="F6" s="4">
+        <v>20</v>
+      </c>
+      <c r="G6" s="4">
+        <v>25</v>
+      </c>
+      <c r="H6" s="4">
+        <v>30</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="K6">
+        <v>17168</v>
+      </c>
+      <c r="L6" s="4">
+        <v>21329</v>
+      </c>
+      <c r="M6">
+        <v>21557</v>
+      </c>
+      <c r="N6">
+        <v>71706</v>
+      </c>
+      <c r="O6" t="s">
         <v>23</v>
-      </c>
-      <c r="B6" s="7">
-        <v>94.111199999999997</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" s="8">
-        <v>15</v>
-      </c>
-      <c r="F6" s="8">
-        <v>20</v>
-      </c>
-      <c r="G6" s="8">
-        <v>25</v>
-      </c>
-      <c r="H6" s="8">
-        <v>30</v>
-      </c>
-      <c r="I6" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="J6" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="K6" s="9">
-        <v>17168</v>
-      </c>
-      <c r="L6" s="8">
-        <v>21329</v>
-      </c>
-      <c r="M6" s="9">
-        <v>21557</v>
-      </c>
-      <c r="N6" s="9">
-        <v>71706</v>
-      </c>
-      <c r="O6" s="9" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="5">
+        <v>116.1152</v>
+      </c>
+      <c r="C7" s="4">
+        <v>5</v>
+      </c>
+      <c r="D7" s="4">
+        <v>10</v>
+      </c>
+      <c r="E7" s="4">
+        <v>15</v>
+      </c>
+      <c r="F7" s="4">
+        <v>20</v>
+      </c>
+      <c r="G7" s="4">
         <v>25</v>
       </c>
-      <c r="B7" s="7">
-        <v>116.1152</v>
-      </c>
-      <c r="C7" s="8">
-        <v>5</v>
-      </c>
-      <c r="D7" s="8">
-        <v>10</v>
-      </c>
-      <c r="E7" s="8">
-        <v>15</v>
-      </c>
-      <c r="F7" s="8">
-        <v>20</v>
-      </c>
-      <c r="G7" s="8">
-        <v>25</v>
-      </c>
-      <c r="H7" s="8">
+      <c r="H7" s="4">
         <v>30</v>
       </c>
-      <c r="I7" s="8">
+      <c r="I7" s="4">
         <v>48330</v>
       </c>
-      <c r="J7" s="8">
+      <c r="J7" s="4">
         <v>206224</v>
       </c>
-      <c r="K7" s="8">
+      <c r="K7" s="4">
         <f>589126+31227</f>
         <v>620353</v>
       </c>
-      <c r="L7" s="9">
+      <c r="L7">
         <f>821374+63963</f>
         <v>885337</v>
       </c>
-      <c r="M7" s="9">
+      <c r="M7">
         <f>1040273+56372</f>
         <v>1096645</v>
       </c>
-      <c r="N7" s="9">
+      <c r="N7">
         <f>1332487+61999</f>
         <v>1394486</v>
       </c>
-      <c r="O7" s="9" t="s">
-        <v>26</v>
+      <c r="O7" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="5">
+        <v>110.11060000000001</v>
+      </c>
+      <c r="C8" s="4">
+        <v>5</v>
+      </c>
+      <c r="D8" s="4">
+        <v>10</v>
+      </c>
+      <c r="E8" s="4">
+        <v>15</v>
+      </c>
+      <c r="F8" s="4">
+        <v>20</v>
+      </c>
+      <c r="G8" s="4">
+        <v>25</v>
+      </c>
+      <c r="H8" s="4">
+        <v>30</v>
+      </c>
+      <c r="I8" s="4">
+        <v>184752</v>
+      </c>
+      <c r="J8" s="4">
+        <v>729379</v>
+      </c>
+      <c r="K8" s="4">
+        <v>1607583</v>
+      </c>
+      <c r="L8">
+        <v>2232039</v>
+      </c>
+      <c r="M8">
+        <v>2972508</v>
+      </c>
+      <c r="N8">
+        <v>3629582</v>
+      </c>
+      <c r="O8" t="s">
         <v>27</v>
-      </c>
-      <c r="B8" s="7">
-        <v>110.11060000000001</v>
-      </c>
-      <c r="C8" s="8">
-        <v>5</v>
-      </c>
-      <c r="D8" s="8">
-        <v>10</v>
-      </c>
-      <c r="E8" s="8">
-        <v>15</v>
-      </c>
-      <c r="F8" s="8">
-        <v>20</v>
-      </c>
-      <c r="G8" s="8">
-        <v>25</v>
-      </c>
-      <c r="H8" s="8">
-        <v>30</v>
-      </c>
-      <c r="I8" s="8">
-        <v>184752</v>
-      </c>
-      <c r="J8" s="8">
-        <v>729379</v>
-      </c>
-      <c r="K8" s="8">
-        <v>1607583</v>
-      </c>
-      <c r="L8" s="9">
-        <v>2232039</v>
-      </c>
-      <c r="M8" s="9">
-        <v>2972508</v>
-      </c>
-      <c r="N8" s="9">
-        <v>3629582</v>
-      </c>
-      <c r="O8" s="9" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.55000000000000004">
@@ -1046,21 +1037,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101002E3A10945EFDDE46A04EBBC0D87FA66A" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="545b0ccc5c17814e571e7646ebbd70cc">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="54e917b3-fa08-4567-ba16-772ae5618444" xmlns:ns4="55a5d045-d387-40ca-ae81-7417199ee186" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7c29ef6019927539f8e7b543e9594364" ns3:_="" ns4:_="">
     <xsd:import namespace="54e917b3-fa08-4567-ba16-772ae5618444"/>
@@ -1283,32 +1259,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1E757D89-FBD1-4745-9BBB-5EBBB2D8B99C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="54e917b3-fa08-4567-ba16-772ae5618444"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="55a5d045-d387-40ca-ae81-7417199ee186"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A1C9A587-8C95-48B5-A842-F4721C9A3A50}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BFFBD1F2-A9FF-465F-8DAD-2BE5C1519088}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1325,4 +1291,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A1C9A587-8C95-48B5-A842-F4721C9A3A50}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1E757D89-FBD1-4745-9BBB-5EBBB2D8B99C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="54e917b3-fa08-4567-ba16-772ae5618444"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="55a5d045-d387-40ca-ae81-7417199ee186"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>